--- a/WorkflowAndResponsibilities.xlsx
+++ b/WorkflowAndResponsibilities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veso\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veso\Drive\(0)TelerikAcademy\(11) JS Apps\JS-Apps-Teamwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$L$8</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -388,50 +391,50 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -991,40 +994,41 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" customWidth="1"/>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
     <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" customWidth="1"/>
-    <col min="12" max="13" width="30.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1032,30 +1036,30 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M3" s="1"/>
@@ -1065,28 +1069,28 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1094,26 +1098,26 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1121,24 +1125,24 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="16"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1146,20 +1150,20 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="16"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1167,47 +1171,48 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="13" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="13" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="14" t="s">
+      <c r="K8" s="12"/>
+      <c r="L8" s="8" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="J4:J7"/>
     <mergeCell ref="L4:L7"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="E3:E8"/>
     <mergeCell ref="G3:G8"/>
     <mergeCell ref="I3:I8"/>
     <mergeCell ref="K3:K8"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="J4:J7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>